--- a/Laker_log.xlsx
+++ b/Laker_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z26"/>
+  <dimension ref="A1:Z25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,79 +572,79 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D2" t="n">
-        <v>37.2</v>
+        <v>35.5</v>
       </c>
       <c r="E2" t="n">
-        <v>11.4</v>
+        <v>11.1</v>
       </c>
       <c r="F2" t="n">
-        <v>21.8</v>
+        <v>22.2</v>
       </c>
       <c r="G2" t="n">
-        <v>0.524</v>
+        <v>0.5</v>
       </c>
       <c r="H2" t="n">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="I2" t="n">
-        <v>8</v>
+        <v>6.9</v>
       </c>
       <c r="J2" t="n">
-        <v>0.359</v>
+        <v>0.321</v>
       </c>
       <c r="K2" t="n">
-        <v>8.6</v>
+        <v>8.9</v>
       </c>
       <c r="L2" t="n">
-        <v>13.8</v>
+        <v>15.3</v>
       </c>
       <c r="M2" t="n">
-        <v>0.62</v>
+        <v>0.58</v>
       </c>
       <c r="N2" t="n">
-        <v>0.59</v>
+        <v>0.549</v>
       </c>
       <c r="O2" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="P2" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.756</v>
+        <v>0.768</v>
       </c>
       <c r="R2" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="S2" t="n">
         <v>7.1</v>
       </c>
       <c r="T2" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="U2" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="V2" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="W2" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="X2" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="Y2" t="n">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="Z2" t="n">
-        <v>30.3</v>
+        <v>28.9</v>
       </c>
     </row>
     <row r="3">
@@ -654,1142 +654,1142 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="C3" t="n">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D3" t="n">
-        <v>35.1</v>
+        <v>34</v>
       </c>
       <c r="E3" t="n">
-        <v>9.300000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>17.4</v>
+        <v>17.2</v>
       </c>
       <c r="G3" t="n">
-        <v>0.532</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="H3" t="n">
         <v>0.3</v>
       </c>
       <c r="I3" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="J3" t="n">
-        <v>0.186</v>
+        <v>0.257</v>
       </c>
       <c r="K3" t="n">
-        <v>8.9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="L3" t="n">
-        <v>15.6</v>
+        <v>15.9</v>
       </c>
       <c r="M3" t="n">
-        <v>0.571</v>
+        <v>0.589</v>
       </c>
       <c r="N3" t="n">
-        <v>0.542</v>
+        <v>0.573</v>
       </c>
       <c r="O3" t="n">
-        <v>4.4</v>
+        <v>6.2</v>
       </c>
       <c r="P3" t="n">
-        <v>6.1</v>
+        <v>7.9</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.713</v>
+        <v>0.784</v>
       </c>
       <c r="R3" t="n">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="S3" t="n">
-        <v>7.2</v>
+        <v>9.1</v>
       </c>
       <c r="T3" t="n">
-        <v>9.9</v>
+        <v>12.5</v>
       </c>
       <c r="U3" t="n">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="V3" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="W3" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="X3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y3" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.2</v>
+        <v>25.9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Russell Westbrook</t>
+          <t>D'Angelo Russell</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="C4" t="n">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>34.3</v>
+        <v>30.9</v>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>6.3</v>
       </c>
       <c r="F4" t="n">
-        <v>15.8</v>
+        <v>13</v>
       </c>
       <c r="G4" t="n">
-        <v>0.444</v>
+        <v>0.484</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="I4" t="n">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="J4" t="n">
-        <v>0.298</v>
+        <v>0.414</v>
       </c>
       <c r="K4" t="n">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="L4" t="n">
-        <v>12.4</v>
+        <v>6.5</v>
       </c>
       <c r="M4" t="n">
-        <v>0.485</v>
+        <v>0.555</v>
       </c>
       <c r="N4" t="n">
-        <v>0.476</v>
+        <v>0.588</v>
       </c>
       <c r="O4" t="n">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="P4" t="n">
-        <v>5.1</v>
+        <v>2.9</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.667</v>
+        <v>0.735</v>
       </c>
       <c r="R4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U4" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X4" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Y4" t="n">
         <v>1.4</v>
       </c>
-      <c r="S4" t="n">
-        <v>6</v>
-      </c>
-      <c r="T4" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="U4" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="X4" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>3</v>
-      </c>
       <c r="Z4" t="n">
-        <v>18.5</v>
+        <v>17.4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Malik Monk</t>
+          <t>Dennis Schröder</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C5" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D5" t="n">
-        <v>28.1</v>
+        <v>30.1</v>
       </c>
       <c r="E5" t="n">
-        <v>5.1</v>
+        <v>4.1</v>
       </c>
       <c r="F5" t="n">
-        <v>10.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>0.473</v>
+        <v>0.415</v>
       </c>
       <c r="H5" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="I5" t="n">
-        <v>5.8</v>
+        <v>3.4</v>
       </c>
       <c r="J5" t="n">
-        <v>0.391</v>
+        <v>0.329</v>
       </c>
       <c r="K5" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="L5" t="n">
-        <v>5.1</v>
+        <v>6.4</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.461</v>
       </c>
       <c r="N5" t="n">
-        <v>0.578</v>
+        <v>0.472</v>
       </c>
       <c r="O5" t="n">
-        <v>1.2</v>
+        <v>3.3</v>
       </c>
       <c r="P5" t="n">
-        <v>1.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.795</v>
+        <v>0.857</v>
       </c>
       <c r="R5" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="S5" t="n">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="T5" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="U5" t="n">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="V5" t="n">
         <v>0.8</v>
       </c>
       <c r="W5" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="X5" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="Z5" t="n">
-        <v>13.8</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Carmelo Anthony</t>
+          <t>Austin Reaves</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C6" t="n">
+        <v>22</v>
+      </c>
+      <c r="D6" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.529</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.398</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.631</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.616</v>
+      </c>
+      <c r="O6" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.864</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T6" t="n">
         <v>3</v>
       </c>
-      <c r="D6" t="n">
-        <v>26</v>
-      </c>
-      <c r="E6" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="F6" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.441</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L6" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.521</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.544</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="S6" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="T6" t="n">
-        <v>4.2</v>
-      </c>
       <c r="U6" t="n">
-        <v>1</v>
+        <v>3.4</v>
       </c>
       <c r="V6" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="W6" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="X6" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="Z6" t="n">
-        <v>13.3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Isaiah Thomas</t>
+          <t>Russell Westbrook</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="F7" t="n">
+        <v>14</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.296</v>
+      </c>
+      <c r="K7" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L7" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.467</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="O7" t="n">
+        <v>3</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="U7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="V7" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="E7" t="n">
-        <v>3</v>
-      </c>
-      <c r="F7" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.308</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="I7" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.227</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="L7" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.412</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.372</v>
-      </c>
-      <c r="O7" t="n">
-        <v>2</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.727</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
       <c r="W7" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="X7" t="n">
-        <v>1.3</v>
+        <v>3.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="Z7" t="n">
-        <v>9.300000000000001</v>
+        <v>15.9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Talen Horton-Tucker</t>
+          <t>Patrick Beverley</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="C8" t="n">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D8" t="n">
-        <v>25.2</v>
+        <v>26.9</v>
       </c>
       <c r="E8" t="n">
-        <v>3.7</v>
+        <v>2.2</v>
       </c>
       <c r="F8" t="n">
-        <v>9</v>
+        <v>5.4</v>
       </c>
       <c r="G8" t="n">
-        <v>0.416</v>
+        <v>0.402</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="J8" t="n">
-        <v>0.269</v>
+        <v>0.348</v>
       </c>
       <c r="K8" t="n">
-        <v>2.9</v>
+        <v>0.9</v>
       </c>
       <c r="L8" t="n">
-        <v>5.9</v>
+        <v>1.8</v>
       </c>
       <c r="M8" t="n">
-        <v>0.492</v>
+        <v>0.506</v>
       </c>
       <c r="N8" t="n">
-        <v>0.462</v>
+        <v>0.517</v>
       </c>
       <c r="O8" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="P8" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="R8" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="S8" t="n">
         <v>2.6</v>
       </c>
       <c r="T8" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="U8" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="V8" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="W8" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="X8" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="Y8" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="Z8" t="n">
-        <v>10</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Austin Reaves</t>
+          <t>Troy Brown Jr.</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C9" t="n">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D9" t="n">
-        <v>23.2</v>
+        <v>24.5</v>
       </c>
       <c r="E9" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F9" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.381</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="L9" t="n">
         <v>2.4</v>
       </c>
-      <c r="F9" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.459</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.317</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2.5</v>
-      </c>
       <c r="M9" t="n">
-        <v>0.616</v>
+        <v>0.505</v>
       </c>
       <c r="N9" t="n">
-        <v>0.542</v>
+        <v>0.545</v>
       </c>
       <c r="O9" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.872</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T9" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="Y9" t="n">
         <v>1.6</v>
       </c>
-      <c r="P9" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0.839</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="S9" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="T9" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>1.4</v>
-      </c>
       <c r="Z9" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Stanley Johnson</t>
+          <t>Jarred Vanderbilt</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="C10" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D10" t="n">
-        <v>22.8</v>
+        <v>24</v>
       </c>
       <c r="E10" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="F10" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="G10" t="n">
-        <v>0.466</v>
+        <v>0.529</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="I10" t="n">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="J10" t="n">
-        <v>0.314</v>
+        <v>0.303</v>
       </c>
       <c r="K10" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="L10" t="n">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="M10" t="n">
-        <v>0.575</v>
+        <v>0.598</v>
       </c>
       <c r="N10" t="n">
-        <v>0.532</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="O10" t="n">
         <v>1.1</v>
       </c>
       <c r="P10" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.716</v>
+        <v>0.784</v>
       </c>
       <c r="R10" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="S10" t="n">
-        <v>2.5</v>
+        <v>4.8</v>
       </c>
       <c r="T10" t="n">
-        <v>3.2</v>
+        <v>6.7</v>
       </c>
       <c r="U10" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="V10" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="W10" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="X10" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="Y10" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Z10" t="n">
-        <v>6.7</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Avery Bradley</t>
+          <t>Malik Beasley</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="C11" t="n">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="D11" t="n">
-        <v>22.7</v>
+        <v>23.9</v>
       </c>
       <c r="E11" t="n">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="F11" t="n">
-        <v>5.6</v>
+        <v>10.3</v>
       </c>
       <c r="G11" t="n">
-        <v>0.423</v>
+        <v>0.392</v>
       </c>
       <c r="H11" t="n">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="I11" t="n">
-        <v>3.4</v>
+        <v>7.2</v>
       </c>
       <c r="J11" t="n">
-        <v>0.39</v>
+        <v>0.353</v>
       </c>
       <c r="K11" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="L11" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="M11" t="n">
-        <v>0.471</v>
+        <v>0.481</v>
       </c>
       <c r="N11" t="n">
-        <v>0.54</v>
+        <v>0.515</v>
       </c>
       <c r="O11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.619</v>
+      </c>
+      <c r="R11" t="n">
         <v>0.3</v>
       </c>
-      <c r="P11" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0.5</v>
-      </c>
       <c r="S11" t="n">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="T11" t="n">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="U11" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="V11" t="n">
         <v>0.8</v>
       </c>
-      <c r="V11" t="n">
-        <v>0.9</v>
-      </c>
       <c r="W11" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="Z11" t="n">
-        <v>6.4</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Mac McClung</t>
+          <t>Lonnie Walker IV</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D12" t="n">
-        <v>22</v>
+        <v>23.2</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="F12" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.448</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I12" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L12" t="n">
         <v>5</v>
       </c>
-      <c r="G12" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>3</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.333</v>
-      </c>
-      <c r="K12" t="n">
-        <v>1</v>
-      </c>
-      <c r="L12" t="n">
-        <v>2</v>
-      </c>
       <c r="M12" t="n">
-        <v>0.5</v>
+        <v>0.522</v>
       </c>
       <c r="N12" t="n">
-        <v>0.5</v>
+        <v>0.534</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="P12" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="Q12" t="n">
-        <v>1</v>
+        <v>0.858</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="S12" t="n">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="T12" t="n">
-        <v>3</v>
+        <v>1.9</v>
       </c>
       <c r="U12" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="V12" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="W12" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="X12" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="Y12" t="n">
-        <v>5</v>
+        <v>1.3</v>
       </c>
       <c r="Z12" t="n">
-        <v>6</v>
+        <v>11.7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Trevor Ariza</t>
+          <t>Rui Hachimura</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C13" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D13" t="n">
-        <v>19.3</v>
+        <v>22.4</v>
       </c>
       <c r="E13" t="n">
-        <v>1.4</v>
+        <v>3.8</v>
       </c>
       <c r="F13" t="n">
-        <v>4.1</v>
+        <v>7.9</v>
       </c>
       <c r="G13" t="n">
-        <v>0.333</v>
+        <v>0.485</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="I13" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="J13" t="n">
-        <v>0.27</v>
+        <v>0.296</v>
       </c>
       <c r="K13" t="n">
-        <v>0.5</v>
+        <v>3.2</v>
       </c>
       <c r="L13" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.556</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.721</v>
+      </c>
+      <c r="R13" t="n">
         <v>1</v>
       </c>
-      <c r="M13" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0.434</v>
-      </c>
-      <c r="O13" t="n">
+      <c r="S13" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T13" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="W13" t="n">
         <v>0.4</v>
       </c>
-      <c r="P13" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0.556</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="S13" t="n">
-        <v>3</v>
-      </c>
-      <c r="T13" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0.3</v>
-      </c>
       <c r="X13" t="n">
         <v>0.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Z13" t="n">
-        <v>4</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Wayne Ellington</t>
+          <t>Thomas Bryant</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C14" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D14" t="n">
-        <v>18.8</v>
+        <v>21.4</v>
       </c>
       <c r="E14" t="n">
-        <v>2.3</v>
+        <v>4.8</v>
       </c>
       <c r="F14" t="n">
-        <v>5.5</v>
+        <v>7.3</v>
       </c>
       <c r="G14" t="n">
-        <v>0.414</v>
+        <v>0.654</v>
       </c>
       <c r="H14" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="I14" t="n">
-        <v>4.9</v>
+        <v>1.2</v>
       </c>
       <c r="J14" t="n">
-        <v>0.389</v>
+        <v>0.44</v>
       </c>
       <c r="K14" t="n">
-        <v>0.4</v>
+        <v>4.3</v>
       </c>
       <c r="L14" t="n">
-        <v>0.6</v>
+        <v>6.1</v>
       </c>
       <c r="M14" t="n">
-        <v>0.615</v>
+        <v>0.697</v>
       </c>
       <c r="N14" t="n">
-        <v>0.586</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="O14" t="n">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="P14" t="n">
-        <v>0.3</v>
+        <v>2.6</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.8179999999999999</v>
+        <v>0.741</v>
       </c>
       <c r="R14" t="n">
-        <v>0.2</v>
+        <v>1.6</v>
       </c>
       <c r="S14" t="n">
-        <v>1.6</v>
+        <v>5.2</v>
       </c>
       <c r="T14" t="n">
-        <v>1.8</v>
+        <v>6.8</v>
       </c>
       <c r="U14" t="n">
         <v>0.7</v>
       </c>
       <c r="V14" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="W14" t="n">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="X14" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="Y14" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="Z14" t="n">
-        <v>6.7</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>D.J. Augustin</t>
+          <t>Wenyen Gabriel</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>17.8</v>
+        <v>15.1</v>
       </c>
       <c r="E15" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="F15" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="G15" t="n">
-        <v>0.453</v>
+        <v>0.596</v>
       </c>
       <c r="H15" t="n">
-        <v>1.4</v>
+        <v>0.1</v>
       </c>
       <c r="I15" t="n">
-        <v>3.2</v>
+        <v>0.5</v>
       </c>
       <c r="J15" t="n">
-        <v>0.426</v>
+        <v>0.278</v>
       </c>
       <c r="K15" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="L15" t="n">
-        <v>0.9</v>
+        <v>3.3</v>
       </c>
       <c r="M15" t="n">
-        <v>0.556</v>
+        <v>0.647</v>
       </c>
       <c r="N15" t="n">
-        <v>0.622</v>
+        <v>0.615</v>
       </c>
       <c r="O15" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="P15" t="n">
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
       <c r="Q15" t="n">
-        <v>1</v>
+        <v>0.619</v>
       </c>
       <c r="R15" t="n">
-        <v>0.2</v>
+        <v>1.7</v>
       </c>
       <c r="S15" t="n">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="T15" t="n">
-        <v>1.3</v>
+        <v>4.2</v>
       </c>
       <c r="U15" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="V15" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="X15" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="Y15" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="Z15" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Wenyen Gabriel</t>
+          <t>Kendrick Nunn</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>16.4</v>
+        <v>13.5</v>
       </c>
       <c r="E16" t="n">
         <v>2.6</v>
       </c>
       <c r="F16" t="n">
-        <v>5.1</v>
+        <v>6.4</v>
       </c>
       <c r="G16" t="n">
-        <v>0.505</v>
+        <v>0.406</v>
       </c>
       <c r="H16" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="V16" t="n">
         <v>0.3</v>
       </c>
-      <c r="I16" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.261</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L16" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.581</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0.536</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0.605</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S16" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="T16" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0.2</v>
-      </c>
       <c r="W16" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="X16" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="Y16" t="n">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="Z16" t="n">
         <v>6.7</v>
@@ -1798,211 +1798,211 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Dwight Howard</t>
+          <t>Max Christie</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="C17" t="n">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>16.2</v>
+        <v>12.5</v>
       </c>
       <c r="E17" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="F17" t="n">
-        <v>3.7</v>
+        <v>2.6</v>
       </c>
       <c r="G17" t="n">
-        <v>0.612</v>
+        <v>0.415</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="I17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.419</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.409</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.538</v>
+      </c>
+      <c r="O17" t="n">
         <v>0.3</v>
       </c>
-      <c r="J17" t="n">
-        <v>0.533</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L17" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.618</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.6</v>
-      </c>
       <c r="P17" t="n">
-        <v>2.4</v>
+        <v>0.4</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.658</v>
+        <v>0.875</v>
       </c>
       <c r="R17" t="n">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="S17" t="n">
-        <v>4</v>
+        <v>1.7</v>
       </c>
       <c r="T17" t="n">
-        <v>5.9</v>
+        <v>1.8</v>
       </c>
       <c r="U17" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="V17" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="W17" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="X17" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Y17" t="n">
         <v>0.8</v>
       </c>
-      <c r="Y17" t="n">
-        <v>1.9</v>
-      </c>
       <c r="Z17" t="n">
-        <v>6.2</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Rajon Rondo</t>
+          <t>Juan Toscano-Anderson</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D18" t="n">
-        <v>16.1</v>
+        <v>12.2</v>
       </c>
       <c r="E18" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="F18" t="n">
-        <v>3.9</v>
+        <v>2.2</v>
       </c>
       <c r="G18" t="n">
-        <v>0.324</v>
+        <v>0.5</v>
       </c>
       <c r="H18" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="O18" t="n">
         <v>0.4</v>
       </c>
-      <c r="I18" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.267</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="P18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.733</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2</v>
+      </c>
+      <c r="U18" t="n">
         <v>0.8</v>
       </c>
-      <c r="L18" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.366</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R18" t="n">
+      <c r="V18" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X18" t="n">
         <v>0.6</v>
       </c>
-      <c r="S18" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="T18" t="n">
+      <c r="Y18" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Z18" t="n">
         <v>2.7</v>
-      </c>
-      <c r="U18" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="W18" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="X18" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>3.1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Kent Bazemore</t>
+          <t>Matt Ryan</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="C19" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>14</v>
+        <v>10.8</v>
       </c>
       <c r="E19" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F19" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.306</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.371</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L19" t="n">
         <v>1.2</v>
       </c>
-      <c r="F19" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.324</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.363</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1.5</v>
-      </c>
       <c r="M19" t="n">
-        <v>0.271</v>
+        <v>0.143</v>
       </c>
       <c r="N19" t="n">
-        <v>0.428</v>
+        <v>0.439</v>
       </c>
       <c r="O19" t="n">
         <v>0.3</v>
@@ -2011,74 +2011,74 @@
         <v>0.4</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.765</v>
+        <v>0.8</v>
       </c>
       <c r="R19" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="U19" t="n">
         <v>0.3</v>
       </c>
-      <c r="S19" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0.9</v>
-      </c>
       <c r="V19" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="W19" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="Z19" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Mason Jones</t>
+          <t>Mo Bamba</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>12.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="E20" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F20" t="n">
+        <v>3</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.407</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I20" t="n">
         <v>1.8</v>
       </c>
-      <c r="F20" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.467</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
       <c r="J20" t="n">
-        <v>0.25</v>
+        <v>0.313</v>
       </c>
       <c r="K20" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="L20" t="n">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="M20" t="n">
         <v>0.545</v>
@@ -2087,166 +2087,168 @@
         <v>0.5</v>
       </c>
       <c r="O20" t="n">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="P20" t="n">
-        <v>3.8</v>
+        <v>1.2</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.8</v>
+        <v>0.545</v>
       </c>
       <c r="R20" t="n">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="S20" t="n">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="T20" t="n">
-        <v>2.5</v>
+        <v>4.6</v>
       </c>
       <c r="U20" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="V20" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="X20" t="n">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="Y20" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Z20" t="n">
-        <v>6.8</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>DeAndre Jordan</t>
+          <t>Damian Jones</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C21" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>12.8</v>
+        <v>8</v>
       </c>
       <c r="E21" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="F21" t="n">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="G21" t="n">
-        <v>0.674</v>
+        <v>0.541</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
+        <v>0.1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="L21" t="n">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="M21" t="n">
-        <v>0.674</v>
+        <v>0.588</v>
       </c>
       <c r="N21" t="n">
-        <v>0.674</v>
+        <v>0.541</v>
       </c>
       <c r="O21" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="X21" t="n">
         <v>0.4</v>
       </c>
-      <c r="P21" t="n">
+      <c r="Y21" t="n">
         <v>0.8</v>
       </c>
-      <c r="Q21" t="n">
-        <v>0.462</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S21" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="T21" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="W21" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="X21" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>1.6</v>
-      </c>
       <c r="Z21" t="n">
-        <v>4.1</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Darren Collison</t>
+          <t>Sterling Brown</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>12.3</v>
+        <v>6</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>0.286</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="M22" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0.286</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -2256,77 +2258,77 @@
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="S22" t="n">
         <v>1.3</v>
       </c>
       <c r="T22" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="U22" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="V22" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="Z22" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Chaundee Brown Jr.</t>
+          <t>Cole Swider</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>10.5</v>
+        <v>5.9</v>
       </c>
       <c r="E23" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="F23" t="n">
-        <v>3.5</v>
+        <v>1.3</v>
       </c>
       <c r="G23" t="n">
-        <v>0.143</v>
+        <v>0.333</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="I23" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="K23" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="M23" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0.143</v>
+        <v>0.5</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -2336,16 +2338,16 @@
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="S23" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="T23" t="n">
         <v>1</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2354,253 +2356,177 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Z23" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Sekou Doumbouya</t>
+          <t>Scotty Pippen Jr.</t>
         </is>
       </c>
       <c r="B24" t="n">
+        <v>6</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F24" t="n">
         <v>2</v>
       </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>8</v>
-      </c>
-      <c r="E24" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F24" t="n">
-        <v>4</v>
-      </c>
       <c r="G24" t="n">
-        <v>0.625</v>
+        <v>0.333</v>
       </c>
       <c r="H24" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J24" t="n">
-        <v>0.5</v>
+        <v>0.333</v>
       </c>
       <c r="K24" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="L24" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="M24" t="n">
-        <v>0.667</v>
+        <v>0.333</v>
       </c>
       <c r="N24" t="n">
-        <v>0.6879999999999999</v>
+        <v>0.375</v>
       </c>
       <c r="O24" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="P24" t="n">
         <v>1.5</v>
       </c>
-      <c r="P24" t="n">
-        <v>2</v>
-      </c>
       <c r="Q24" t="n">
-        <v>0.75</v>
+        <v>0.556</v>
       </c>
       <c r="R24" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="S24" t="n">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="T24" t="n">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="V24" t="n">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="W24" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="X24" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="Y24" t="n">
         <v>0.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>7</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Jemerrio Jones</t>
+          <t>Davon Reed</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="E25" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M25" t="n">
         <v>1</v>
       </c>
-      <c r="F25" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
+      <c r="N25" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Z25" t="n">
         <v>1</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="n">
-        <v>1</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T25" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Jay Huff</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>4</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>5</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="T26" t="n">
-        <v>1</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
